--- a/InfinityThesisTest5.xlsx
+++ b/InfinityThesisTest5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiecb/Desktop/InfinityThesisTest5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiecb/Desktop/ThesisTestFast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5E29AF-2432-694B-82A9-A3E5A0133FE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B07878E-E09B-7B47-BB45-3A87C51FBCBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="155">
   <si>
     <t>Statement</t>
   </si>
@@ -106,12 +106,6 @@
     <t>Space has an end</t>
   </si>
   <si>
-    <t>Time  goes on forever</t>
-  </si>
-  <si>
-    <t>Numbers are finite</t>
-  </si>
-  <si>
     <t>An inch cannot go on forever</t>
   </si>
   <si>
@@ -119,13 +113,457 @@
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>A minute is finite</t>
+  </si>
+  <si>
+    <t>A minute has an end</t>
+  </si>
+  <si>
+    <t>A minute is endless</t>
+  </si>
+  <si>
+    <t>A minute cannot go on forever</t>
+  </si>
+  <si>
+    <t>A minute can go on forever</t>
+  </si>
+  <si>
+    <t>A minute cannot be further divided</t>
+  </si>
+  <si>
+    <t>A minute can be further divided</t>
+  </si>
+  <si>
+    <t>An inch is finite</t>
+  </si>
+  <si>
+    <t>An inch is infinite</t>
+  </si>
+  <si>
+    <t>An inch has an end</t>
+  </si>
+  <si>
+    <t>An inch is endless</t>
+  </si>
+  <si>
+    <t>An inch can go on forever</t>
+  </si>
+  <si>
+    <t>An inch cannot be further divided</t>
+  </si>
+  <si>
+    <t>An inch can be further divided</t>
+  </si>
+  <si>
+    <t>Intervals of time are finite</t>
+  </si>
+  <si>
+    <t>Intervals of time are infinite</t>
+  </si>
+  <si>
+    <t>Intervals of time have an end</t>
+  </si>
+  <si>
+    <t>Intervals of time are endless</t>
+  </si>
+  <si>
+    <t>Intervals of time cannot go on forever</t>
+  </si>
+  <si>
+    <t>Intervals of time can go on forever</t>
+  </si>
+  <si>
+    <t>Intervals of time cannot be further divided</t>
+  </si>
+  <si>
+    <t>Intervals of time can be further divided</t>
+  </si>
+  <si>
+    <t>Spatial intervals are finite</t>
+  </si>
+  <si>
+    <t>Spatial intervals are infinite</t>
+  </si>
+  <si>
+    <t>Spatial intervals have an end</t>
+  </si>
+  <si>
+    <t>Spatial intervals are endless</t>
+  </si>
+  <si>
+    <t>Spatial intervals cannot go on forever</t>
+  </si>
+  <si>
+    <t>Spatial intervals can go on forever</t>
+  </si>
+  <si>
+    <t>Spatial intervals cannot be further divided</t>
+  </si>
+  <si>
+    <t>Spatial intervals can be further divided</t>
+  </si>
+  <si>
+    <t>Numerical intervals are finite</t>
+  </si>
+  <si>
+    <t>Numerical intervals are infinite</t>
+  </si>
+  <si>
+    <t>Numerical intervals have an end</t>
+  </si>
+  <si>
+    <t>Numerical intervals are endless</t>
+  </si>
+  <si>
+    <t>Numerical intervals cannot go on forever</t>
+  </si>
+  <si>
+    <t>Numerical intervals can go on forever</t>
+  </si>
+  <si>
+    <t>Numerical intervals cannot be further divided</t>
+  </si>
+  <si>
+    <t>Numerical intervals can be further divided</t>
+  </si>
+  <si>
+    <t>Time is finite</t>
+  </si>
+  <si>
+    <t>Time is infinite</t>
+  </si>
+  <si>
+    <t>Time has an end</t>
+  </si>
+  <si>
+    <t>Time is endless</t>
+  </si>
+  <si>
+    <t>Time cannot go on forever</t>
+  </si>
+  <si>
+    <t>Time can go on forever</t>
+  </si>
+  <si>
+    <t>Time cannot be further divided</t>
+  </si>
+  <si>
+    <t>Time can be further divided</t>
+  </si>
+  <si>
+    <t>Space is finite</t>
+  </si>
+  <si>
+    <t>Space is infinite</t>
+  </si>
+  <si>
+    <t>Space is endless</t>
+  </si>
+  <si>
+    <t>Space cannot go on forever</t>
+  </si>
+  <si>
+    <t>Space can go on forever</t>
+  </si>
+  <si>
+    <t>Space cannot be further divided</t>
+  </si>
+  <si>
+    <t>Space can be further divided</t>
+  </si>
+  <si>
+    <t>Number is finite</t>
+  </si>
+  <si>
+    <t>Number is infinite</t>
+  </si>
+  <si>
+    <t>Number has an end</t>
+  </si>
+  <si>
+    <t>Number is endless</t>
+  </si>
+  <si>
+    <t>Number cannot go on forever</t>
+  </si>
+  <si>
+    <t>Number can go on forever</t>
+  </si>
+  <si>
+    <t>Number cannot be further divided</t>
+  </si>
+  <si>
+    <t>Number can be further divided</t>
+  </si>
+  <si>
+    <t>Five is finite</t>
+  </si>
+  <si>
+    <t>Five is infinite</t>
+  </si>
+  <si>
+    <t>Five has an end</t>
+  </si>
+  <si>
+    <t>Five is endless</t>
+  </si>
+  <si>
+    <t>Five cannot go on forever</t>
+  </si>
+  <si>
+    <t>Five can go on forever</t>
+  </si>
+  <si>
+    <t>Five cannot be further divided</t>
+  </si>
+  <si>
+    <t>Five can be further divided</t>
+  </si>
+  <si>
+    <t>Crocodiles are alive</t>
+  </si>
+  <si>
+    <t>Pelicans are alive</t>
+  </si>
+  <si>
+    <t>Turtles need nutrients</t>
+  </si>
+  <si>
+    <t>Tigers reproduce</t>
+  </si>
+  <si>
+    <t>Frogs reproduce</t>
+  </si>
+  <si>
+    <t>Bricks can be put in a container</t>
+  </si>
+  <si>
+    <t>Dumbells are composed of matter</t>
+  </si>
+  <si>
+    <t>Concrete is composed of matter</t>
+  </si>
+  <si>
+    <t>Diamonds have a molecular structure</t>
+  </si>
+  <si>
+    <t>Rocks have a molecular structure</t>
+  </si>
+  <si>
+    <t>Clocks are alive</t>
+  </si>
+  <si>
+    <t>Comets are alive</t>
+  </si>
+  <si>
+    <t>Robots need nutrients</t>
+  </si>
+  <si>
+    <t>Tornadoes reproduce</t>
+  </si>
+  <si>
+    <t>Computers reproduce</t>
+  </si>
+  <si>
+    <t>Color can be put in a container</t>
+  </si>
+  <si>
+    <t>Echoes is composed of matter</t>
+  </si>
+  <si>
+    <t>Shadows are composed of matter</t>
+  </si>
+  <si>
+    <t>Music have a molecular structure</t>
+  </si>
+  <si>
+    <t>Gravity has a molecular structure</t>
+  </si>
+  <si>
+    <t>Algae is alive</t>
+  </si>
+  <si>
+    <t>Bacteria are alive</t>
+  </si>
+  <si>
+    <t>Grass needs nutrients</t>
+  </si>
+  <si>
+    <t>Oaks reproduce</t>
+  </si>
+  <si>
+    <t>Mushrooms reproduce</t>
+  </si>
+  <si>
+    <t>Bubbles can be put in a container</t>
+  </si>
+  <si>
+    <t>Foam are composed of matter</t>
+  </si>
+  <si>
+    <t>Frost is composed of matter</t>
+  </si>
+  <si>
+    <t>Pollen has a molecular structure</t>
+  </si>
+  <si>
+    <t>Saliva has a molecular structure</t>
+  </si>
+  <si>
+    <t>Hammers are alive</t>
+  </si>
+  <si>
+    <t>Forks are alive</t>
+  </si>
+  <si>
+    <t>Mittens need nutrients</t>
+  </si>
+  <si>
+    <t>Tables reproduce</t>
+  </si>
+  <si>
+    <t>Stones reproduce</t>
+  </si>
+  <si>
+    <t>Songs can be put in a container</t>
+  </si>
+  <si>
+    <t>Stories are composed of matter</t>
+  </si>
+  <si>
+    <t>Thoughts are composed of matter</t>
+  </si>
+  <si>
+    <t>Words have a molecular structure</t>
+  </si>
+  <si>
+    <t>Dreams have a molecular structure</t>
+  </si>
+  <si>
+    <t>This sentence is written in English</t>
+  </si>
+  <si>
+    <t>A square is a shape</t>
+  </si>
+  <si>
+    <t>A triangle is a shape</t>
+  </si>
+  <si>
+    <t>A circle is a shape</t>
+  </si>
+  <si>
+    <t>Dinosaurs are extinct</t>
+  </si>
+  <si>
+    <t>Magenta is a color</t>
+  </si>
+  <si>
+    <t>Orange is a color</t>
+  </si>
+  <si>
+    <t>Yellow is a color</t>
+  </si>
+  <si>
+    <t>Humans can drink water</t>
+  </si>
+  <si>
+    <t>Humans can eat food</t>
+  </si>
+  <si>
+    <t>A clock is used to tell time</t>
+  </si>
+  <si>
+    <t>A motorcycle is a vehicle</t>
+  </si>
+  <si>
+    <t>A truck is a vehicle</t>
+  </si>
+  <si>
+    <t>Jupiter is in our solar system</t>
+  </si>
+  <si>
+    <t>The Earth is a planet</t>
+  </si>
+  <si>
+    <t>The United States is a country</t>
+  </si>
+  <si>
+    <t>The United States has a president</t>
+  </si>
+  <si>
+    <t>There are fifty states in the United States</t>
+  </si>
+  <si>
+    <t>Humans cannot breathe water</t>
+  </si>
+  <si>
+    <t>A pencil is used to write</t>
+  </si>
+  <si>
+    <t>This sentence is written in Spanish</t>
+  </si>
+  <si>
+    <t>A square is a color</t>
+  </si>
+  <si>
+    <t>A triangle is an animal</t>
+  </si>
+  <si>
+    <t>A circle is a flavor</t>
+  </si>
+  <si>
+    <t>Dinosaurs are not extinct</t>
+  </si>
+  <si>
+    <t>Magenta is a shape</t>
+  </si>
+  <si>
+    <t>Orange is a shape</t>
+  </si>
+  <si>
+    <t>Yellow is an animal</t>
+  </si>
+  <si>
+    <t>Humans can breathe water</t>
+  </si>
+  <si>
+    <t>Humans cannot eat food</t>
+  </si>
+  <si>
+    <t>A horse is used to tell time</t>
+  </si>
+  <si>
+    <t>A motorcycle is a person</t>
+  </si>
+  <si>
+    <t>A truck is an animal</t>
+  </si>
+  <si>
+    <t>Jupiter is the planet we live on</t>
+  </si>
+  <si>
+    <t>The Earth is a star</t>
+  </si>
+  <si>
+    <t>Mississippi is a country</t>
+  </si>
+  <si>
+    <t>The president of the United States is Oprah</t>
+  </si>
+  <si>
+    <t>There are ninty states in the United States</t>
+  </si>
+  <si>
+    <t>A rocketship is used to write</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +590,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -181,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -190,6 +634,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,16 +956,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -533,43 +978,1219 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -591,6 +2212,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9F5CAB0486A994CA2C3B13E059EF2AE" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8645ec4a60d0c8c7009d2d6675847a91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="636d7205651659ec4fcda0bcbde9384b">
     <xsd:element name="properties">
@@ -704,15 +2334,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
   <ds:schemaRefs>
@@ -729,6 +2350,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF1C174-6AC6-4774-A736-3226A12360E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -742,12 +2371,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/InfinityThesisTest5.xlsx
+++ b/InfinityThesisTest5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiecb/Desktop/ThesisTestFast/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiecb/Desktop/Thesis/ThesisTestFast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B07878E-E09B-7B47-BB45-3A87C51FBCBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC20D7A8-B930-BC49-A965-B15B560A91A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7060" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="145">
   <si>
     <t>Statement</t>
   </si>
@@ -376,9 +376,6 @@
     <t>Shadows are composed of matter</t>
   </si>
   <si>
-    <t>Music have a molecular structure</t>
-  </si>
-  <si>
     <t>Gravity has a molecular structure</t>
   </si>
   <si>
@@ -400,9 +397,6 @@
     <t>Bubbles can be put in a container</t>
   </si>
   <si>
-    <t>Foam are composed of matter</t>
-  </si>
-  <si>
     <t>Frost is composed of matter</t>
   </si>
   <si>
@@ -451,15 +445,6 @@
     <t>A triangle is a shape</t>
   </si>
   <si>
-    <t>A circle is a shape</t>
-  </si>
-  <si>
-    <t>Dinosaurs are extinct</t>
-  </si>
-  <si>
-    <t>Magenta is a color</t>
-  </si>
-  <si>
     <t>Orange is a color</t>
   </si>
   <si>
@@ -472,9 +457,6 @@
     <t>Humans can eat food</t>
   </si>
   <si>
-    <t>A clock is used to tell time</t>
-  </si>
-  <si>
     <t>A motorcycle is a vehicle</t>
   </si>
   <si>
@@ -496,9 +478,6 @@
     <t>There are fifty states in the United States</t>
   </si>
   <si>
-    <t>Humans cannot breathe water</t>
-  </si>
-  <si>
     <t>A pencil is used to write</t>
   </si>
   <si>
@@ -529,27 +508,12 @@
     <t>Humans can breathe water</t>
   </si>
   <si>
-    <t>Humans cannot eat food</t>
-  </si>
-  <si>
     <t>A horse is used to tell time</t>
   </si>
   <si>
     <t>A motorcycle is a person</t>
   </si>
   <si>
-    <t>A truck is an animal</t>
-  </si>
-  <si>
-    <t>Jupiter is the planet we live on</t>
-  </si>
-  <si>
-    <t>The Earth is a star</t>
-  </si>
-  <si>
-    <t>Mississippi is a country</t>
-  </si>
-  <si>
     <t>The president of the United States is Oprah</t>
   </si>
   <si>
@@ -557,6 +521,12 @@
   </si>
   <si>
     <t>A rocketship is used to write</t>
+  </si>
+  <si>
+    <t>Music has a molecular structure</t>
+  </si>
+  <si>
+    <t>Foam is composed of matter</t>
   </si>
 </sst>
 </file>
@@ -956,11 +926,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A128" sqref="A128:XFD128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1699,7 +1669,7 @@
     </row>
     <row r="92" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
@@ -1707,7 +1677,7 @@
     </row>
     <row r="93" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -1715,7 +1685,7 @@
     </row>
     <row r="94" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -1723,7 +1693,7 @@
     </row>
     <row r="95" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -1731,7 +1701,7 @@
     </row>
     <row r="96" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -1739,7 +1709,7 @@
     </row>
     <row r="97" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -1747,7 +1717,7 @@
     </row>
     <row r="98" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -1755,7 +1725,7 @@
     </row>
     <row r="99" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -1763,7 +1733,7 @@
     </row>
     <row r="100" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -1771,7 +1741,7 @@
     </row>
     <row r="101" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -1779,7 +1749,7 @@
     </row>
     <row r="102" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -1787,7 +1757,7 @@
     </row>
     <row r="103" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -1795,7 +1765,7 @@
     </row>
     <row r="104" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
@@ -1803,7 +1773,7 @@
     </row>
     <row r="105" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
@@ -1811,7 +1781,7 @@
     </row>
     <row r="106" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
@@ -1819,7 +1789,7 @@
     </row>
     <row r="107" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
@@ -1827,7 +1797,7 @@
     </row>
     <row r="108" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
@@ -1835,7 +1805,7 @@
     </row>
     <row r="109" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
@@ -1843,7 +1813,7 @@
     </row>
     <row r="110" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
@@ -1851,7 +1821,7 @@
     </row>
     <row r="111" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -1859,7 +1829,7 @@
     </row>
     <row r="112" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -1867,7 +1837,7 @@
     </row>
     <row r="113" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
@@ -1875,7 +1845,7 @@
     </row>
     <row r="114" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -1883,7 +1853,7 @@
     </row>
     <row r="115" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -1891,7 +1861,7 @@
     </row>
     <row r="116" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -1899,7 +1869,7 @@
     </row>
     <row r="117" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -1907,7 +1877,7 @@
     </row>
     <row r="118" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
@@ -1915,7 +1885,7 @@
     </row>
     <row r="119" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
@@ -1923,7 +1893,7 @@
     </row>
     <row r="120" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
@@ -1931,7 +1901,7 @@
     </row>
     <row r="121" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
@@ -1939,7 +1909,7 @@
     </row>
     <row r="122" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -1947,7 +1917,7 @@
     </row>
     <row r="123" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -1955,7 +1925,7 @@
     </row>
     <row r="124" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -1963,7 +1933,7 @@
     </row>
     <row r="125" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -1971,7 +1941,7 @@
     </row>
     <row r="126" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -1979,7 +1949,7 @@
     </row>
     <row r="127" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
@@ -1987,7 +1957,7 @@
     </row>
     <row r="128" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -1995,47 +1965,47 @@
     </row>
     <row r="129" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -2043,7 +2013,7 @@
     </row>
     <row r="135" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -2051,7 +2021,7 @@
     </row>
     <row r="136" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
@@ -2059,7 +2029,7 @@
     </row>
     <row r="137" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -2067,7 +2037,7 @@
     </row>
     <row r="138" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
@@ -2075,7 +2045,7 @@
     </row>
     <row r="139" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
@@ -2083,7 +2053,7 @@
     </row>
     <row r="140" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
@@ -2091,7 +2061,7 @@
     </row>
     <row r="141" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
@@ -2099,7 +2069,7 @@
     </row>
     <row r="142" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
@@ -2107,89 +2077,9 @@
     </row>
     <row r="143" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B144" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B145" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B146" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B147" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B148" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B149" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B150" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B151" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B152" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B153" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2206,18 +2096,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2335,6 +2225,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2345,14 +2243,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
